--- a/input_data/data_errors_07/proporcionalidades.xlsx
+++ b/input_data/data_errors_07/proporcionalidades.xlsx
@@ -309,7 +309,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
